--- a/Code/Results/Cases/Case_4_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009227765349601</v>
+        <v>1.034054088928839</v>
       </c>
       <c r="D2">
-        <v>1.028109367435593</v>
+        <v>1.041977205839834</v>
       </c>
       <c r="E2">
-        <v>1.017342310568918</v>
+        <v>1.03769802115549</v>
       </c>
       <c r="F2">
-        <v>1.032594379400186</v>
+        <v>1.050932742371011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046945945797433</v>
+        <v>1.03925445930406</v>
       </c>
       <c r="J2">
-        <v>1.031135935521513</v>
+        <v>1.039175437204703</v>
       </c>
       <c r="K2">
-        <v>1.039190506177522</v>
+        <v>1.044755195862259</v>
       </c>
       <c r="L2">
-        <v>1.028565212980189</v>
+        <v>1.040488163928564</v>
       </c>
       <c r="M2">
-        <v>1.04361755742208</v>
+        <v>1.05368564625952</v>
       </c>
       <c r="N2">
-        <v>1.014213083985932</v>
+        <v>1.017020389338579</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012973547004002</v>
+        <v>1.034857388077937</v>
       </c>
       <c r="D3">
-        <v>1.030854750487527</v>
+        <v>1.042592530624964</v>
       </c>
       <c r="E3">
-        <v>1.02059732369802</v>
+        <v>1.038449155713989</v>
       </c>
       <c r="F3">
-        <v>1.035866070071524</v>
+        <v>1.051685093904593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047964077867159</v>
+        <v>1.039431802627169</v>
       </c>
       <c r="J3">
-        <v>1.03311668135851</v>
+        <v>1.039622447759569</v>
       </c>
       <c r="K3">
-        <v>1.041107492166393</v>
+        <v>1.045181770947775</v>
       </c>
       <c r="L3">
-        <v>1.030973270223765</v>
+        <v>1.041049315052982</v>
       </c>
       <c r="M3">
-        <v>1.046059717553501</v>
+        <v>1.054250698096534</v>
       </c>
       <c r="N3">
-        <v>1.014880977340652</v>
+        <v>1.017170038628497</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015355095118424</v>
+        <v>1.035377923256704</v>
       </c>
       <c r="D4">
-        <v>1.032603558029279</v>
+        <v>1.042991347387656</v>
       </c>
       <c r="E4">
-        <v>1.022672172481228</v>
+        <v>1.038936268127839</v>
       </c>
       <c r="F4">
-        <v>1.037951275623509</v>
+        <v>1.052172928154165</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04860388608246</v>
+        <v>1.039545769527719</v>
       </c>
       <c r="J4">
-        <v>1.034374007956079</v>
+        <v>1.039911762484625</v>
       </c>
       <c r="K4">
-        <v>1.042323788511184</v>
+        <v>1.045457759314049</v>
       </c>
       <c r="L4">
-        <v>1.032504453412597</v>
+        <v>1.041412829913182</v>
       </c>
       <c r="M4">
-        <v>1.047612262340043</v>
+        <v>1.054616669633593</v>
       </c>
       <c r="N4">
-        <v>1.015304798787495</v>
+        <v>1.017266856342422</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016346486985391</v>
+        <v>1.035596933233146</v>
       </c>
       <c r="D5">
-        <v>1.033332307199155</v>
+        <v>1.043159166186373</v>
       </c>
       <c r="E5">
-        <v>1.023537142186133</v>
+        <v>1.039141306282102</v>
       </c>
       <c r="F5">
-        <v>1.038820490629387</v>
+        <v>1.052378253968077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048868393462671</v>
+        <v>1.039593492260323</v>
       </c>
       <c r="J5">
-        <v>1.034896898210518</v>
+        <v>1.040033405580422</v>
       </c>
       <c r="K5">
-        <v>1.042829474926926</v>
+        <v>1.045573775259401</v>
       </c>
       <c r="L5">
-        <v>1.033141864520919</v>
+        <v>1.041565748726095</v>
       </c>
       <c r="M5">
-        <v>1.048258482453258</v>
+        <v>1.054770605020546</v>
       </c>
       <c r="N5">
-        <v>1.015481019554504</v>
+        <v>1.017307554335936</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016512379145905</v>
+        <v>1.035633716297484</v>
       </c>
       <c r="D6">
-        <v>1.033454293935052</v>
+        <v>1.043187352807651</v>
       </c>
       <c r="E6">
-        <v>1.023681952522956</v>
+        <v>1.039175748049502</v>
       </c>
       <c r="F6">
-        <v>1.038966007268381</v>
+        <v>1.052412743105692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048912545634467</v>
+        <v>1.039601494014759</v>
       </c>
       <c r="J6">
-        <v>1.034984364074632</v>
+        <v>1.040053830843138</v>
       </c>
       <c r="K6">
-        <v>1.042914054592334</v>
+        <v>1.04559325424654</v>
       </c>
       <c r="L6">
-        <v>1.033248523946906</v>
+        <v>1.041591430118918</v>
       </c>
       <c r="M6">
-        <v>1.048366610826645</v>
+        <v>1.054796456147258</v>
       </c>
       <c r="N6">
-        <v>1.015510494509569</v>
+        <v>1.017314387449125</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015368380309493</v>
+        <v>1.035380848985573</v>
       </c>
       <c r="D7">
-        <v>1.032613320735683</v>
+        <v>1.042993589179153</v>
       </c>
       <c r="E7">
-        <v>1.022683758644709</v>
+        <v>1.038939006853938</v>
       </c>
       <c r="F7">
-        <v>1.037962918945814</v>
+        <v>1.052175670786182</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048607437896878</v>
+        <v>1.03954640794461</v>
       </c>
       <c r="J7">
-        <v>1.034381017017402</v>
+        <v>1.039913387827631</v>
       </c>
       <c r="K7">
-        <v>1.042330567527613</v>
+        <v>1.045459309564085</v>
       </c>
       <c r="L7">
-        <v>1.032512995066531</v>
+        <v>1.041414872842062</v>
       </c>
       <c r="M7">
-        <v>1.047620922377074</v>
+        <v>1.054618726209805</v>
       </c>
       <c r="N7">
-        <v>1.015307161076073</v>
+        <v>1.017267400168018</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010502595262617</v>
+        <v>1.034325411885392</v>
       </c>
       <c r="D8">
-        <v>1.029043008071485</v>
+        <v>1.042185019839933</v>
       </c>
       <c r="E8">
-        <v>1.018448981215508</v>
+        <v>1.037951646154397</v>
       </c>
       <c r="F8">
-        <v>1.033706773449094</v>
+        <v>1.051186792188061</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047294008930673</v>
+        <v>1.039314555616943</v>
       </c>
       <c r="J8">
-        <v>1.03181046496107</v>
+        <v>1.039326491424145</v>
       </c>
       <c r="K8">
-        <v>1.039843435220518</v>
+        <v>1.044899365176989</v>
       </c>
       <c r="L8">
-        <v>1.029384716263668</v>
+        <v>1.040677721192112</v>
       </c>
       <c r="M8">
-        <v>1.04444873036064</v>
+        <v>1.053876535677116</v>
       </c>
       <c r="N8">
-        <v>1.014440558500492</v>
+        <v>1.017070966907136</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001591109552318</v>
+        <v>1.032471398201878</v>
       </c>
       <c r="D9">
-        <v>1.022532143926133</v>
+        <v>1.040765359362017</v>
       </c>
       <c r="E9">
-        <v>1.010736655395015</v>
+        <v>1.036220136559583</v>
       </c>
       <c r="F9">
-        <v>1.025953686461767</v>
+        <v>1.049452109133636</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044830431684819</v>
+        <v>1.0389000154446</v>
       </c>
       <c r="J9">
-        <v>1.027087806481458</v>
+        <v>1.038292892530335</v>
       </c>
       <c r="K9">
-        <v>1.035269932465845</v>
+        <v>1.043912469887122</v>
       </c>
       <c r="L9">
-        <v>1.023657906904661</v>
+        <v>1.039381996390712</v>
       </c>
       <c r="M9">
-        <v>1.038639263662</v>
+        <v>1.052571419932997</v>
       </c>
       <c r="N9">
-        <v>1.012847412777921</v>
+        <v>1.016724730278137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9954027991823171</v>
+        <v>1.031239398761336</v>
       </c>
       <c r="D10">
-        <v>1.018032518629864</v>
+        <v>1.039822489216967</v>
       </c>
       <c r="E10">
-        <v>1.00541245536452</v>
+        <v>1.035071528576552</v>
       </c>
       <c r="F10">
-        <v>1.020600556056863</v>
+        <v>1.048301055510246</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043082337651486</v>
+        <v>1.038619675828376</v>
       </c>
       <c r="J10">
-        <v>1.023800008225324</v>
+        <v>1.037604301469522</v>
       </c>
       <c r="K10">
-        <v>1.032083648401836</v>
+        <v>1.043254485851431</v>
       </c>
       <c r="L10">
-        <v>1.019684669096822</v>
+        <v>1.038520447753125</v>
       </c>
       <c r="M10">
-        <v>1.034607562932059</v>
+        <v>1.051703272003519</v>
       </c>
       <c r="N10">
-        <v>1.011737762742632</v>
+        <v>1.016493870550663</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9926596618727084</v>
+        <v>1.030706903526488</v>
       </c>
       <c r="D11">
-        <v>1.016043699467553</v>
+        <v>1.039415086796612</v>
       </c>
       <c r="E11">
-        <v>1.00306027019264</v>
+        <v>1.034575553639362</v>
       </c>
       <c r="F11">
-        <v>1.018235509138096</v>
+        <v>1.047803944448563</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042299030353032</v>
+        <v>1.038497351456417</v>
       </c>
       <c r="J11">
-        <v>1.022341028220837</v>
+        <v>1.037306263472809</v>
       </c>
       <c r="K11">
-        <v>1.030669267460208</v>
+        <v>1.042969576056908</v>
       </c>
       <c r="L11">
-        <v>1.017924704144066</v>
+        <v>1.038147945899569</v>
       </c>
       <c r="M11">
-        <v>1.032821533730373</v>
+        <v>1.05132783341828</v>
       </c>
       <c r="N11">
-        <v>1.011245251695842</v>
+        <v>1.016393903573368</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.991630748647633</v>
+        <v>1.030509258482954</v>
       </c>
       <c r="D12">
-        <v>1.01529864186662</v>
+        <v>1.039263891544256</v>
       </c>
       <c r="E12">
-        <v>1.002179227912996</v>
+        <v>1.034391535858566</v>
       </c>
       <c r="F12">
-        <v>1.017349646776321</v>
+        <v>1.047619493163157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042003996239466</v>
+        <v>1.038451774965387</v>
       </c>
       <c r="J12">
-        <v>1.021793582804281</v>
+        <v>1.037195579260088</v>
       </c>
       <c r="K12">
-        <v>1.030138498318722</v>
+        <v>1.042863749521797</v>
       </c>
       <c r="L12">
-        <v>1.017264796110061</v>
+        <v>1.038009667065088</v>
       </c>
       <c r="M12">
-        <v>1.032151836127954</v>
+        <v>1.051188451947528</v>
       </c>
       <c r="N12">
-        <v>1.01106043738487</v>
+        <v>1.016356771409789</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.991851913446284</v>
+        <v>1.030551647315729</v>
       </c>
       <c r="D13">
-        <v>1.015458749379943</v>
+        <v>1.039296317427911</v>
       </c>
       <c r="E13">
-        <v>1.002368551585541</v>
+        <v>1.034430998788305</v>
       </c>
       <c r="F13">
-        <v>1.017540006173702</v>
+        <v>1.047659049599899</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042067468586426</v>
+        <v>1.038461557590048</v>
       </c>
       <c r="J13">
-        <v>1.021911264707921</v>
+        <v>1.037219320455727</v>
       </c>
       <c r="K13">
-        <v>1.030252597889673</v>
+        <v>1.042886449575718</v>
       </c>
       <c r="L13">
-        <v>1.017406632222841</v>
+        <v>1.038039324474328</v>
       </c>
       <c r="M13">
-        <v>1.032295776954275</v>
+        <v>1.0512183464086</v>
       </c>
       <c r="N13">
-        <v>1.01110016659294</v>
+        <v>1.016364736375832</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9925748180125595</v>
+        <v>1.030690563107891</v>
       </c>
       <c r="D14">
-        <v>1.015982243189595</v>
+        <v>1.039402586242861</v>
       </c>
       <c r="E14">
-        <v>1.002987594459381</v>
+        <v>1.034560338388596</v>
       </c>
       <c r="F14">
-        <v>1.018162435799162</v>
+        <v>1.047788693598178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042274726648405</v>
+        <v>1.038493586936309</v>
       </c>
       <c r="J14">
-        <v>1.022295889950183</v>
+        <v>1.037297113857818</v>
       </c>
       <c r="K14">
-        <v>1.030625505325783</v>
+        <v>1.042960828360771</v>
       </c>
       <c r="L14">
-        <v>1.017870283418023</v>
+        <v>1.038136513985702</v>
       </c>
       <c r="M14">
-        <v>1.032766305974502</v>
+        <v>1.051316310600393</v>
       </c>
       <c r="N14">
-        <v>1.011230013512824</v>
+        <v>1.016390834213774</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9930188860091635</v>
+        <v>1.03077617329954</v>
       </c>
       <c r="D15">
-        <v>1.016303939809823</v>
+        <v>1.039468079536082</v>
       </c>
       <c r="E15">
-        <v>1.0033680255967</v>
+        <v>1.034640056594025</v>
       </c>
       <c r="F15">
-        <v>1.018544948212431</v>
+        <v>1.047868597832512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042401881080107</v>
+        <v>1.038513302775476</v>
       </c>
       <c r="J15">
-        <v>1.022532133089913</v>
+        <v>1.037345047680404</v>
       </c>
       <c r="K15">
-        <v>1.030854543762953</v>
+        <v>1.043006655845396</v>
       </c>
       <c r="L15">
-        <v>1.018155128082605</v>
+        <v>1.038196406955933</v>
       </c>
       <c r="M15">
-        <v>1.033055374103765</v>
+        <v>1.051376679315565</v>
       </c>
       <c r="N15">
-        <v>1.011309766122171</v>
+        <v>1.016406913971109</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9955834759916211</v>
+        <v>1.031274759284037</v>
       </c>
       <c r="D16">
-        <v>1.018163637180162</v>
+        <v>1.039849545598373</v>
       </c>
       <c r="E16">
-        <v>1.00556755071275</v>
+        <v>1.035104474050144</v>
       </c>
       <c r="F16">
-        <v>1.020756498581975</v>
+        <v>1.048334074767243</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043133757731353</v>
+        <v>1.038627774450587</v>
       </c>
       <c r="J16">
-        <v>1.023896074018579</v>
+        <v>1.037624084051267</v>
       </c>
       <c r="K16">
-        <v>1.032176768988224</v>
+        <v>1.043273394530344</v>
       </c>
       <c r="L16">
-        <v>1.019800619176534</v>
+        <v>1.038545181295467</v>
       </c>
       <c r="M16">
-        <v>1.03472522739087</v>
+        <v>1.051728198786624</v>
       </c>
       <c r="N16">
-        <v>1.011770190074349</v>
+        <v>1.016500505005356</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9971748555542318</v>
+        <v>1.031587769752509</v>
       </c>
       <c r="D17">
-        <v>1.019319177683705</v>
+        <v>1.040089062567332</v>
       </c>
       <c r="E17">
-        <v>1.006934519513275</v>
+        <v>1.035396161757545</v>
       </c>
       <c r="F17">
-        <v>1.022130926087547</v>
+        <v>1.048626406469119</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043585703759574</v>
+        <v>1.038699329600213</v>
       </c>
       <c r="J17">
-        <v>1.02474203448133</v>
+        <v>1.037799151021589</v>
       </c>
       <c r="K17">
-        <v>1.032996743731162</v>
+        <v>1.043440714088233</v>
       </c>
       <c r="L17">
-        <v>1.020822044226635</v>
+        <v>1.0387641078145</v>
       </c>
       <c r="M17">
-        <v>1.035761736571301</v>
+        <v>1.051948826118435</v>
       </c>
       <c r="N17">
-        <v>1.012055736107114</v>
+        <v>1.016559211688724</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9980969789498563</v>
+        <v>1.031770436798653</v>
       </c>
       <c r="D18">
-        <v>1.019989299050936</v>
+        <v>1.040228852244063</v>
       </c>
       <c r="E18">
-        <v>1.00772735823526</v>
+        <v>1.03556643126316</v>
       </c>
       <c r="F18">
-        <v>1.022928082504336</v>
+        <v>1.048797044156125</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043846780037661</v>
+        <v>1.038740976197477</v>
       </c>
       <c r="J18">
-        <v>1.025232073409079</v>
+        <v>1.037901276734923</v>
       </c>
       <c r="K18">
-        <v>1.033471686679283</v>
+        <v>1.043538308819243</v>
       </c>
       <c r="L18">
-        <v>1.021414027305524</v>
+        <v>1.03889185732937</v>
       </c>
       <c r="M18">
-        <v>1.03636244533876</v>
+        <v>1.052077560041139</v>
       </c>
       <c r="N18">
-        <v>1.012221134736379</v>
+        <v>1.016593453962263</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9984103772875549</v>
+        <v>1.03183273731543</v>
       </c>
       <c r="D19">
-        <v>1.020217141218325</v>
+        <v>1.040276531011709</v>
       </c>
       <c r="E19">
-        <v>1.007996943110403</v>
+        <v>1.035624511260368</v>
       </c>
       <c r="F19">
-        <v>1.02319913380977</v>
+        <v>1.048855248427244</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043935373566078</v>
+        <v>1.038755161269183</v>
       </c>
       <c r="J19">
-        <v>1.025398594145324</v>
+        <v>1.037936100976704</v>
       </c>
       <c r="K19">
-        <v>1.033633070031886</v>
+        <v>1.043571586068574</v>
       </c>
       <c r="L19">
-        <v>1.021615241306722</v>
+        <v>1.038935425616655</v>
       </c>
       <c r="M19">
-        <v>1.036566622126668</v>
+        <v>1.052121462686022</v>
       </c>
       <c r="N19">
-        <v>1.012277337373148</v>
+        <v>1.016605129619403</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9970047497911968</v>
+        <v>1.031554177023946</v>
       </c>
       <c r="D20">
-        <v>1.019195602781085</v>
+        <v>1.04006335601441</v>
       </c>
       <c r="E20">
-        <v>1.00678832341098</v>
+        <v>1.035364852655148</v>
       </c>
       <c r="F20">
-        <v>1.021983933080662</v>
+        <v>1.048595029042097</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043537477383567</v>
+        <v>1.038691661745577</v>
       </c>
       <c r="J20">
-        <v>1.024651623592757</v>
+        <v>1.037780366729887</v>
       </c>
       <c r="K20">
-        <v>1.03290911445384</v>
+        <v>1.043422762266466</v>
       </c>
       <c r="L20">
-        <v>1.020712849409366</v>
+        <v>1.038740613537653</v>
       </c>
       <c r="M20">
-        <v>1.035650930851233</v>
+        <v>1.051925150150805</v>
       </c>
       <c r="N20">
-        <v>1.012025219716705</v>
+        <v>1.016552913048907</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9923622200723068</v>
+        <v>1.030649651785627</v>
       </c>
       <c r="D21">
-        <v>1.015828263843324</v>
+        <v>1.039371289061988</v>
       </c>
       <c r="E21">
-        <v>1.002805506835974</v>
+        <v>1.034522245303017</v>
       </c>
       <c r="F21">
-        <v>1.017979351974896</v>
+        <v>1.047750511191618</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042213807884306</v>
+        <v>1.038484158944361</v>
       </c>
       <c r="J21">
-        <v>1.022182781359277</v>
+        <v>1.037274205066574</v>
       </c>
       <c r="K21">
-        <v>1.030515844180914</v>
+        <v>1.042938925605657</v>
       </c>
       <c r="L21">
-        <v>1.017733922253834</v>
+        <v>1.038107891739005</v>
       </c>
       <c r="M21">
-        <v>1.032627922409821</v>
+        <v>1.051287460554692</v>
       </c>
       <c r="N21">
-        <v>1.011191829114362</v>
+        <v>1.01638314904631</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9893852422208002</v>
+        <v>1.03008179458204</v>
       </c>
       <c r="D22">
-        <v>1.013674378969142</v>
+        <v>1.038936924622466</v>
       </c>
       <c r="E22">
-        <v>1.00025874314072</v>
+        <v>1.033993677136189</v>
       </c>
       <c r="F22">
-        <v>1.015418661509539</v>
+        <v>1.047220675344026</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041357902393287</v>
+        <v>1.03835288539797</v>
       </c>
       <c r="J22">
-        <v>1.020598502454723</v>
+        <v>1.036956079667346</v>
       </c>
       <c r="K22">
-        <v>1.028979725328532</v>
+        <v>1.042634728523366</v>
       </c>
       <c r="L22">
-        <v>1.015825076021032</v>
+        <v>1.037710566681222</v>
       </c>
       <c r="M22">
-        <v>1.030690737338945</v>
+        <v>1.050886943801518</v>
       </c>
       <c r="N22">
-        <v>1.010656966298738</v>
+        <v>1.0162764120603</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9909690493893897</v>
+        <v>1.03038274488348</v>
       </c>
       <c r="D23">
-        <v>1.014819758235126</v>
+        <v>1.03916711621631</v>
       </c>
       <c r="E23">
-        <v>1.001612977121393</v>
+        <v>1.034273765495421</v>
       </c>
       <c r="F23">
-        <v>1.016780298608268</v>
+        <v>1.047501441994914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041813917713127</v>
+        <v>1.038422552348331</v>
       </c>
       <c r="J23">
-        <v>1.021441465397008</v>
+        <v>1.037124712268853</v>
       </c>
       <c r="K23">
-        <v>1.029797091799475</v>
+        <v>1.042795987714418</v>
       </c>
       <c r="L23">
-        <v>1.016840475838164</v>
+        <v>1.037921149002137</v>
       </c>
       <c r="M23">
-        <v>1.031721217584818</v>
+        <v>1.051099224537729</v>
       </c>
       <c r="N23">
-        <v>1.01094156160336</v>
+        <v>1.016332995152445</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9970816320869066</v>
+        <v>1.031569355843852</v>
       </c>
       <c r="D24">
-        <v>1.019251452951716</v>
+        <v>1.040074971441473</v>
       </c>
       <c r="E24">
-        <v>1.006854396993581</v>
+        <v>1.035378999480168</v>
       </c>
       <c r="F24">
-        <v>1.022050366852227</v>
+        <v>1.048609206763105</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04355927663625</v>
+        <v>1.038695126798175</v>
       </c>
       <c r="J24">
-        <v>1.02469248686013</v>
+        <v>1.037788854505506</v>
       </c>
       <c r="K24">
-        <v>1.032948720643161</v>
+        <v>1.043430873921986</v>
       </c>
       <c r="L24">
-        <v>1.02076220156353</v>
+        <v>1.038751229425345</v>
       </c>
       <c r="M24">
-        <v>1.035701011127836</v>
+        <v>1.051935848160384</v>
       </c>
       <c r="N24">
-        <v>1.012039012326186</v>
+        <v>1.016555759134241</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00393696491299</v>
+        <v>1.032950006451178</v>
       </c>
       <c r="D25">
-        <v>1.024242517395075</v>
+        <v>1.041131754619706</v>
       </c>
       <c r="E25">
-        <v>1.012761563382721</v>
+        <v>1.036666771837551</v>
       </c>
       <c r="F25">
-        <v>1.027989467726477</v>
+        <v>1.049899623379791</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045485541795293</v>
+        <v>1.039007888779066</v>
       </c>
       <c r="J25">
-        <v>1.028332557034915</v>
+        <v>1.038560024765945</v>
       </c>
       <c r="K25">
-        <v>1.036475804648495</v>
+        <v>1.044167621453236</v>
       </c>
       <c r="L25">
-        <v>1.025164950713494</v>
+        <v>1.039716579592897</v>
       </c>
       <c r="M25">
-        <v>1.040168283155844</v>
+        <v>1.052908491007601</v>
       </c>
       <c r="N25">
-        <v>1.01326742171207</v>
+        <v>1.016814249114637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034054088928839</v>
+        <v>1.009227765349601</v>
       </c>
       <c r="D2">
-        <v>1.041977205839834</v>
+        <v>1.028109367435594</v>
       </c>
       <c r="E2">
-        <v>1.03769802115549</v>
+        <v>1.017342310568918</v>
       </c>
       <c r="F2">
-        <v>1.050932742371011</v>
+        <v>1.032594379400187</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03925445930406</v>
+        <v>1.046945945797433</v>
       </c>
       <c r="J2">
-        <v>1.039175437204703</v>
+        <v>1.031135935521513</v>
       </c>
       <c r="K2">
-        <v>1.044755195862259</v>
+        <v>1.039190506177522</v>
       </c>
       <c r="L2">
-        <v>1.040488163928564</v>
+        <v>1.028565212980189</v>
       </c>
       <c r="M2">
-        <v>1.05368564625952</v>
+        <v>1.04361755742208</v>
       </c>
       <c r="N2">
-        <v>1.017020389338579</v>
+        <v>1.014213083985932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034857388077937</v>
+        <v>1.012973547004004</v>
       </c>
       <c r="D3">
-        <v>1.042592530624964</v>
+        <v>1.030854750487528</v>
       </c>
       <c r="E3">
-        <v>1.038449155713989</v>
+        <v>1.020597323698021</v>
       </c>
       <c r="F3">
-        <v>1.051685093904593</v>
+        <v>1.035866070071525</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039431802627169</v>
+        <v>1.04796407786716</v>
       </c>
       <c r="J3">
-        <v>1.039622447759569</v>
+        <v>1.033116681358512</v>
       </c>
       <c r="K3">
-        <v>1.045181770947775</v>
+        <v>1.041107492166394</v>
       </c>
       <c r="L3">
-        <v>1.041049315052982</v>
+        <v>1.030973270223766</v>
       </c>
       <c r="M3">
-        <v>1.054250698096534</v>
+        <v>1.046059717553502</v>
       </c>
       <c r="N3">
-        <v>1.017170038628497</v>
+        <v>1.014880977340653</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035377923256704</v>
+        <v>1.015355095118424</v>
       </c>
       <c r="D4">
-        <v>1.042991347387656</v>
+        <v>1.032603558029279</v>
       </c>
       <c r="E4">
-        <v>1.038936268127839</v>
+        <v>1.022672172481229</v>
       </c>
       <c r="F4">
-        <v>1.052172928154165</v>
+        <v>1.037951275623509</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039545769527719</v>
+        <v>1.04860388608246</v>
       </c>
       <c r="J4">
-        <v>1.039911762484625</v>
+        <v>1.034374007956079</v>
       </c>
       <c r="K4">
-        <v>1.045457759314049</v>
+        <v>1.042323788511184</v>
       </c>
       <c r="L4">
-        <v>1.041412829913182</v>
+        <v>1.032504453412597</v>
       </c>
       <c r="M4">
-        <v>1.054616669633593</v>
+        <v>1.047612262340043</v>
       </c>
       <c r="N4">
-        <v>1.017266856342422</v>
+        <v>1.015304798787495</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035596933233146</v>
+        <v>1.016346486985391</v>
       </c>
       <c r="D5">
-        <v>1.043159166186373</v>
+        <v>1.033332307199155</v>
       </c>
       <c r="E5">
-        <v>1.039141306282102</v>
+        <v>1.023537142186133</v>
       </c>
       <c r="F5">
-        <v>1.052378253968077</v>
+        <v>1.038820490629387</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039593492260323</v>
+        <v>1.048868393462671</v>
       </c>
       <c r="J5">
-        <v>1.040033405580422</v>
+        <v>1.034896898210518</v>
       </c>
       <c r="K5">
-        <v>1.045573775259401</v>
+        <v>1.042829474926926</v>
       </c>
       <c r="L5">
-        <v>1.041565748726095</v>
+        <v>1.033141864520919</v>
       </c>
       <c r="M5">
-        <v>1.054770605020546</v>
+        <v>1.048258482453258</v>
       </c>
       <c r="N5">
-        <v>1.017307554335936</v>
+        <v>1.015481019554504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035633716297484</v>
+        <v>1.016512379145905</v>
       </c>
       <c r="D6">
-        <v>1.043187352807651</v>
+        <v>1.033454293935051</v>
       </c>
       <c r="E6">
-        <v>1.039175748049502</v>
+        <v>1.023681952522955</v>
       </c>
       <c r="F6">
-        <v>1.052412743105692</v>
+        <v>1.03896600726838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039601494014759</v>
+        <v>1.048912545634467</v>
       </c>
       <c r="J6">
-        <v>1.040053830843138</v>
+        <v>1.034984364074631</v>
       </c>
       <c r="K6">
-        <v>1.04559325424654</v>
+        <v>1.042914054592333</v>
       </c>
       <c r="L6">
-        <v>1.041591430118918</v>
+        <v>1.033248523946906</v>
       </c>
       <c r="M6">
-        <v>1.054796456147258</v>
+        <v>1.048366610826644</v>
       </c>
       <c r="N6">
-        <v>1.017314387449125</v>
+        <v>1.015510494509568</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035380848985573</v>
+        <v>1.015368380309493</v>
       </c>
       <c r="D7">
-        <v>1.042993589179153</v>
+        <v>1.032613320735683</v>
       </c>
       <c r="E7">
-        <v>1.038939006853938</v>
+        <v>1.022683758644709</v>
       </c>
       <c r="F7">
-        <v>1.052175670786182</v>
+        <v>1.037962918945814</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03954640794461</v>
+        <v>1.048607437896878</v>
       </c>
       <c r="J7">
-        <v>1.039913387827631</v>
+        <v>1.034381017017402</v>
       </c>
       <c r="K7">
-        <v>1.045459309564085</v>
+        <v>1.042330567527613</v>
       </c>
       <c r="L7">
-        <v>1.041414872842062</v>
+        <v>1.032512995066531</v>
       </c>
       <c r="M7">
-        <v>1.054618726209805</v>
+        <v>1.047620922377073</v>
       </c>
       <c r="N7">
-        <v>1.017267400168018</v>
+        <v>1.015307161076073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034325411885392</v>
+        <v>1.010502595262616</v>
       </c>
       <c r="D8">
-        <v>1.042185019839933</v>
+        <v>1.029043008071485</v>
       </c>
       <c r="E8">
-        <v>1.037951646154397</v>
+        <v>1.018448981215508</v>
       </c>
       <c r="F8">
-        <v>1.051186792188061</v>
+        <v>1.033706773449093</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039314555616943</v>
+        <v>1.047294008930672</v>
       </c>
       <c r="J8">
-        <v>1.039326491424145</v>
+        <v>1.031810464961069</v>
       </c>
       <c r="K8">
-        <v>1.044899365176989</v>
+        <v>1.039843435220518</v>
       </c>
       <c r="L8">
-        <v>1.040677721192112</v>
+        <v>1.029384716263668</v>
       </c>
       <c r="M8">
-        <v>1.053876535677116</v>
+        <v>1.04444873036064</v>
       </c>
       <c r="N8">
-        <v>1.017070966907136</v>
+        <v>1.014440558500492</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.032471398201878</v>
+        <v>1.001591109552317</v>
       </c>
       <c r="D9">
-        <v>1.040765359362017</v>
+        <v>1.022532143926132</v>
       </c>
       <c r="E9">
-        <v>1.036220136559583</v>
+        <v>1.010736655395014</v>
       </c>
       <c r="F9">
-        <v>1.049452109133636</v>
+        <v>1.025953686461766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0389000154446</v>
+        <v>1.044830431684818</v>
       </c>
       <c r="J9">
-        <v>1.038292892530335</v>
+        <v>1.027087806481457</v>
       </c>
       <c r="K9">
-        <v>1.043912469887122</v>
+        <v>1.035269932465844</v>
       </c>
       <c r="L9">
-        <v>1.039381996390712</v>
+        <v>1.02365790690466</v>
       </c>
       <c r="M9">
-        <v>1.052571419932997</v>
+        <v>1.038639263661999</v>
       </c>
       <c r="N9">
-        <v>1.016724730278137</v>
+        <v>1.012847412777921</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031239398761336</v>
+        <v>0.995402799182316</v>
       </c>
       <c r="D10">
-        <v>1.039822489216967</v>
+        <v>1.018032518629863</v>
       </c>
       <c r="E10">
-        <v>1.035071528576552</v>
+        <v>1.005412455364519</v>
       </c>
       <c r="F10">
-        <v>1.048301055510246</v>
+        <v>1.020600556056862</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038619675828376</v>
+        <v>1.043082337651485</v>
       </c>
       <c r="J10">
-        <v>1.037604301469522</v>
+        <v>1.023800008225323</v>
       </c>
       <c r="K10">
-        <v>1.043254485851431</v>
+        <v>1.032083648401835</v>
       </c>
       <c r="L10">
-        <v>1.038520447753125</v>
+        <v>1.019684669096822</v>
       </c>
       <c r="M10">
-        <v>1.051703272003519</v>
+        <v>1.034607562932057</v>
       </c>
       <c r="N10">
-        <v>1.016493870550663</v>
+        <v>1.011737762742632</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030706903526488</v>
+        <v>0.992659661872708</v>
       </c>
       <c r="D11">
-        <v>1.039415086796612</v>
+        <v>1.016043699467553</v>
       </c>
       <c r="E11">
-        <v>1.034575553639362</v>
+        <v>1.00306027019264</v>
       </c>
       <c r="F11">
-        <v>1.047803944448563</v>
+        <v>1.018235509138095</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038497351456417</v>
+        <v>1.042299030353032</v>
       </c>
       <c r="J11">
-        <v>1.037306263472809</v>
+        <v>1.022341028220837</v>
       </c>
       <c r="K11">
-        <v>1.042969576056908</v>
+        <v>1.030669267460208</v>
       </c>
       <c r="L11">
-        <v>1.038147945899569</v>
+        <v>1.017924704144065</v>
       </c>
       <c r="M11">
-        <v>1.05132783341828</v>
+        <v>1.032821533730373</v>
       </c>
       <c r="N11">
-        <v>1.016393903573368</v>
+        <v>1.011245251695842</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030509258482954</v>
+        <v>0.9916307486476338</v>
       </c>
       <c r="D12">
-        <v>1.039263891544256</v>
+        <v>1.015298641866621</v>
       </c>
       <c r="E12">
-        <v>1.034391535858566</v>
+        <v>1.002179227912997</v>
       </c>
       <c r="F12">
-        <v>1.047619493163157</v>
+        <v>1.017349646776323</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038451774965387</v>
+        <v>1.042003996239467</v>
       </c>
       <c r="J12">
-        <v>1.037195579260088</v>
+        <v>1.021793582804282</v>
       </c>
       <c r="K12">
-        <v>1.042863749521797</v>
+        <v>1.030138498318723</v>
       </c>
       <c r="L12">
-        <v>1.038009667065088</v>
+        <v>1.017264796110062</v>
       </c>
       <c r="M12">
-        <v>1.051188451947528</v>
+        <v>1.032151836127954</v>
       </c>
       <c r="N12">
-        <v>1.016356771409789</v>
+        <v>1.01106043738487</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030551647315729</v>
+        <v>0.9918519134462837</v>
       </c>
       <c r="D13">
-        <v>1.039296317427911</v>
+        <v>1.015458749379942</v>
       </c>
       <c r="E13">
-        <v>1.034430998788305</v>
+        <v>1.00236855158554</v>
       </c>
       <c r="F13">
-        <v>1.047659049599899</v>
+        <v>1.017540006173702</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038461557590048</v>
+        <v>1.042067468586426</v>
       </c>
       <c r="J13">
-        <v>1.037219320455727</v>
+        <v>1.02191126470792</v>
       </c>
       <c r="K13">
-        <v>1.042886449575718</v>
+        <v>1.030252597889673</v>
       </c>
       <c r="L13">
-        <v>1.038039324474328</v>
+        <v>1.017406632222841</v>
       </c>
       <c r="M13">
-        <v>1.0512183464086</v>
+        <v>1.032295776954275</v>
       </c>
       <c r="N13">
-        <v>1.016364736375832</v>
+        <v>1.011100166592939</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030690563107891</v>
+        <v>0.9925748180125601</v>
       </c>
       <c r="D14">
-        <v>1.039402586242861</v>
+        <v>1.015982243189595</v>
       </c>
       <c r="E14">
-        <v>1.034560338388596</v>
+        <v>1.002987594459382</v>
       </c>
       <c r="F14">
-        <v>1.047788693598178</v>
+        <v>1.018162435799163</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038493586936309</v>
+        <v>1.042274726648405</v>
       </c>
       <c r="J14">
-        <v>1.037297113857818</v>
+        <v>1.022295889950184</v>
       </c>
       <c r="K14">
-        <v>1.042960828360771</v>
+        <v>1.030625505325784</v>
       </c>
       <c r="L14">
-        <v>1.038136513985702</v>
+        <v>1.017870283418024</v>
       </c>
       <c r="M14">
-        <v>1.051316310600393</v>
+        <v>1.032766305974503</v>
       </c>
       <c r="N14">
-        <v>1.016390834213774</v>
+        <v>1.011230013512824</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03077617329954</v>
+        <v>0.9930188860091628</v>
       </c>
       <c r="D15">
-        <v>1.039468079536082</v>
+        <v>1.016303939809822</v>
       </c>
       <c r="E15">
-        <v>1.034640056594025</v>
+        <v>1.0033680255967</v>
       </c>
       <c r="F15">
-        <v>1.047868597832512</v>
+        <v>1.018544948212431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038513302775476</v>
+        <v>1.042401881080107</v>
       </c>
       <c r="J15">
-        <v>1.037345047680404</v>
+        <v>1.022532133089913</v>
       </c>
       <c r="K15">
-        <v>1.043006655845396</v>
+        <v>1.030854543762952</v>
       </c>
       <c r="L15">
-        <v>1.038196406955933</v>
+        <v>1.018155128082604</v>
       </c>
       <c r="M15">
-        <v>1.051376679315565</v>
+        <v>1.033055374103764</v>
       </c>
       <c r="N15">
-        <v>1.016406913971109</v>
+        <v>1.011309766122171</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031274759284037</v>
+        <v>0.9955834759916207</v>
       </c>
       <c r="D16">
-        <v>1.039849545598373</v>
+        <v>1.018163637180162</v>
       </c>
       <c r="E16">
-        <v>1.035104474050144</v>
+        <v>1.00556755071275</v>
       </c>
       <c r="F16">
-        <v>1.048334074767243</v>
+        <v>1.020756498581975</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038627774450587</v>
+        <v>1.043133757731353</v>
       </c>
       <c r="J16">
-        <v>1.037624084051267</v>
+        <v>1.023896074018579</v>
       </c>
       <c r="K16">
-        <v>1.043273394530344</v>
+        <v>1.032176768988224</v>
       </c>
       <c r="L16">
-        <v>1.038545181295467</v>
+        <v>1.019800619176533</v>
       </c>
       <c r="M16">
-        <v>1.051728198786624</v>
+        <v>1.034725227390869</v>
       </c>
       <c r="N16">
-        <v>1.016500505005356</v>
+        <v>1.011770190074349</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031587769752509</v>
+        <v>0.9971748555542328</v>
       </c>
       <c r="D17">
-        <v>1.040089062567332</v>
+        <v>1.019319177683706</v>
       </c>
       <c r="E17">
-        <v>1.035396161757545</v>
+        <v>1.006934519513276</v>
       </c>
       <c r="F17">
-        <v>1.048626406469119</v>
+        <v>1.022130926087548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038699329600213</v>
+        <v>1.043585703759575</v>
       </c>
       <c r="J17">
-        <v>1.037799151021589</v>
+        <v>1.024742034481331</v>
       </c>
       <c r="K17">
-        <v>1.043440714088233</v>
+        <v>1.032996743731163</v>
       </c>
       <c r="L17">
-        <v>1.0387641078145</v>
+        <v>1.020822044226636</v>
       </c>
       <c r="M17">
-        <v>1.051948826118435</v>
+        <v>1.035761736571302</v>
       </c>
       <c r="N17">
-        <v>1.016559211688724</v>
+        <v>1.012055736107114</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031770436798653</v>
+        <v>0.9980969789498569</v>
       </c>
       <c r="D18">
-        <v>1.040228852244063</v>
+        <v>1.019989299050937</v>
       </c>
       <c r="E18">
-        <v>1.03556643126316</v>
+        <v>1.007727358235261</v>
       </c>
       <c r="F18">
-        <v>1.048797044156125</v>
+        <v>1.022928082504337</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038740976197477</v>
+        <v>1.043846780037662</v>
       </c>
       <c r="J18">
-        <v>1.037901276734923</v>
+        <v>1.02523207340908</v>
       </c>
       <c r="K18">
-        <v>1.043538308819243</v>
+        <v>1.033471686679284</v>
       </c>
       <c r="L18">
-        <v>1.03889185732937</v>
+        <v>1.021414027305525</v>
       </c>
       <c r="M18">
-        <v>1.052077560041139</v>
+        <v>1.036362445338761</v>
       </c>
       <c r="N18">
-        <v>1.016593453962263</v>
+        <v>1.012221134736379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03183273731543</v>
+        <v>0.9984103772875547</v>
       </c>
       <c r="D19">
-        <v>1.040276531011709</v>
+        <v>1.020217141218325</v>
       </c>
       <c r="E19">
-        <v>1.035624511260368</v>
+        <v>1.007996943110402</v>
       </c>
       <c r="F19">
-        <v>1.048855248427244</v>
+        <v>1.023199133809769</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038755161269183</v>
+        <v>1.043935373566078</v>
       </c>
       <c r="J19">
-        <v>1.037936100976704</v>
+        <v>1.025398594145323</v>
       </c>
       <c r="K19">
-        <v>1.043571586068574</v>
+        <v>1.033633070031886</v>
       </c>
       <c r="L19">
-        <v>1.038935425616655</v>
+        <v>1.021615241306721</v>
       </c>
       <c r="M19">
-        <v>1.052121462686022</v>
+        <v>1.036566622126668</v>
       </c>
       <c r="N19">
-        <v>1.016605129619403</v>
+        <v>1.012277337373148</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031554177023946</v>
+        <v>0.9970047497911974</v>
       </c>
       <c r="D20">
-        <v>1.04006335601441</v>
+        <v>1.019195602781086</v>
       </c>
       <c r="E20">
-        <v>1.035364852655148</v>
+        <v>1.006788323410981</v>
       </c>
       <c r="F20">
-        <v>1.048595029042097</v>
+        <v>1.021983933080663</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038691661745577</v>
+        <v>1.043537477383567</v>
       </c>
       <c r="J20">
-        <v>1.037780366729887</v>
+        <v>1.024651623592758</v>
       </c>
       <c r="K20">
-        <v>1.043422762266466</v>
+        <v>1.032909114453841</v>
       </c>
       <c r="L20">
-        <v>1.038740613537653</v>
+        <v>1.020712849409367</v>
       </c>
       <c r="M20">
-        <v>1.051925150150805</v>
+        <v>1.035650930851233</v>
       </c>
       <c r="N20">
-        <v>1.016552913048907</v>
+        <v>1.012025219716706</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030649651785627</v>
+        <v>0.9923622200723067</v>
       </c>
       <c r="D21">
-        <v>1.039371289061988</v>
+        <v>1.015828263843323</v>
       </c>
       <c r="E21">
-        <v>1.034522245303017</v>
+        <v>1.002805506835974</v>
       </c>
       <c r="F21">
-        <v>1.047750511191618</v>
+        <v>1.017979351974895</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038484158944361</v>
+        <v>1.042213807884306</v>
       </c>
       <c r="J21">
-        <v>1.037274205066574</v>
+        <v>1.022182781359276</v>
       </c>
       <c r="K21">
-        <v>1.042938925605657</v>
+        <v>1.030515844180914</v>
       </c>
       <c r="L21">
-        <v>1.038107891739005</v>
+        <v>1.017733922253834</v>
       </c>
       <c r="M21">
-        <v>1.051287460554692</v>
+        <v>1.032627922409821</v>
       </c>
       <c r="N21">
-        <v>1.01638314904631</v>
+        <v>1.011191829114362</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03008179458204</v>
+        <v>0.9893852422208</v>
       </c>
       <c r="D22">
-        <v>1.038936924622466</v>
+        <v>1.013674378969142</v>
       </c>
       <c r="E22">
-        <v>1.033993677136189</v>
+        <v>1.00025874314072</v>
       </c>
       <c r="F22">
-        <v>1.047220675344026</v>
+        <v>1.015418661509538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03835288539797</v>
+        <v>1.041357902393287</v>
       </c>
       <c r="J22">
-        <v>1.036956079667346</v>
+        <v>1.020598502454722</v>
       </c>
       <c r="K22">
-        <v>1.042634728523366</v>
+        <v>1.028979725328532</v>
       </c>
       <c r="L22">
-        <v>1.037710566681222</v>
+        <v>1.015825076021032</v>
       </c>
       <c r="M22">
-        <v>1.050886943801518</v>
+        <v>1.030690737338945</v>
       </c>
       <c r="N22">
-        <v>1.0162764120603</v>
+        <v>1.010656966298738</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03038274488348</v>
+        <v>0.9909690493893901</v>
       </c>
       <c r="D23">
-        <v>1.03916711621631</v>
+        <v>1.014819758235126</v>
       </c>
       <c r="E23">
-        <v>1.034273765495421</v>
+        <v>1.001612977121393</v>
       </c>
       <c r="F23">
-        <v>1.047501441994914</v>
+        <v>1.016780298608268</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038422552348331</v>
+        <v>1.041813917713127</v>
       </c>
       <c r="J23">
-        <v>1.037124712268853</v>
+        <v>1.021441465397009</v>
       </c>
       <c r="K23">
-        <v>1.042795987714418</v>
+        <v>1.029797091799476</v>
       </c>
       <c r="L23">
-        <v>1.037921149002137</v>
+        <v>1.016840475838165</v>
       </c>
       <c r="M23">
-        <v>1.051099224537729</v>
+        <v>1.031721217584819</v>
       </c>
       <c r="N23">
-        <v>1.016332995152445</v>
+        <v>1.010941561603361</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031569355843852</v>
+        <v>0.9970816320869066</v>
       </c>
       <c r="D24">
-        <v>1.040074971441473</v>
+        <v>1.019251452951716</v>
       </c>
       <c r="E24">
-        <v>1.035378999480168</v>
+        <v>1.006854396993582</v>
       </c>
       <c r="F24">
-        <v>1.048609206763105</v>
+        <v>1.022050366852227</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038695126798175</v>
+        <v>1.04355927663625</v>
       </c>
       <c r="J24">
-        <v>1.037788854505506</v>
+        <v>1.02469248686013</v>
       </c>
       <c r="K24">
-        <v>1.043430873921986</v>
+        <v>1.032948720643161</v>
       </c>
       <c r="L24">
-        <v>1.038751229425345</v>
+        <v>1.02076220156353</v>
       </c>
       <c r="M24">
-        <v>1.051935848160384</v>
+        <v>1.035701011127836</v>
       </c>
       <c r="N24">
-        <v>1.016555759134241</v>
+        <v>1.012039012326186</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032950006451178</v>
+        <v>1.00393696491299</v>
       </c>
       <c r="D25">
-        <v>1.041131754619706</v>
+        <v>1.024242517395074</v>
       </c>
       <c r="E25">
-        <v>1.036666771837551</v>
+        <v>1.01276156338272</v>
       </c>
       <c r="F25">
-        <v>1.049899623379791</v>
+        <v>1.027989467726476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039007888779066</v>
+        <v>1.045485541795292</v>
       </c>
       <c r="J25">
-        <v>1.038560024765945</v>
+        <v>1.028332557034915</v>
       </c>
       <c r="K25">
-        <v>1.044167621453236</v>
+        <v>1.036475804648494</v>
       </c>
       <c r="L25">
-        <v>1.039716579592897</v>
+        <v>1.025164950713493</v>
       </c>
       <c r="M25">
-        <v>1.052908491007601</v>
+        <v>1.040168283155843</v>
       </c>
       <c r="N25">
-        <v>1.016814249114637</v>
+        <v>1.013267421712069</v>
       </c>
     </row>
   </sheetData>
